--- a/output.xlsx
+++ b/output.xlsx
@@ -528,6 +528,78 @@
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Jefferson</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>souza</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>123</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23/05/1991</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>30</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>souza</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>123</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>23/05/1991</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>30</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output.xlsx
+++ b/output.xlsx
@@ -600,6 +600,142 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
     </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>23/05/1991</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>30</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>23/05/1991</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>30</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Jefferson</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>SOuza</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1522728282</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>23/05/1991</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>30</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Rosene</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>SOuza</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1522728282</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>23/05/1992</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>29</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output.xlsx
+++ b/output.xlsx
@@ -451,6 +451,11 @@
           <t>maior_de_idade</t>
         </is>
       </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>vaga</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr"/>
@@ -459,20 +464,17 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Jefferson</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Souza</t>
-        </is>
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>123456789</v>
+        <v>3</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -486,6 +488,9 @@
         <is>
           <t>true</t>
         </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -495,246 +500,7 @@
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>23/05/1991</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>30</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Jefferson</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>souza</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>123</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>23/05/1991</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>30</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Jessica</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>souza</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>123</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>23/05/1991</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>30</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>1</v>
-      </c>
-      <c r="B11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>23/05/1991</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>30</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="n">
-        <v>3</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>23/05/1991</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>30</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Jefferson</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>SOuza</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>1522728282</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>23/05/1991</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>30</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Rosene</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>SOuza</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>1522728282</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>23/05/1992</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>29</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr"/>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
